--- a/script_DNRPA/files/registroParqueActivoNacion.xlsx
+++ b/script_DNRPA/files/registroParqueActivoNacion.xlsx
@@ -1018,79 +1018,79 @@
         <v>45108</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6628588</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1609481</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>126972</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1764364</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>339025</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290380</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>345070</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>600951</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>119137</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>206334</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>206780</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>113692</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>882836</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>331094</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>373023</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>364460</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>343860</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>270969</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219980</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>201276</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1505812</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>202446</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>441582</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>104934</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>17593046</v>
       </c>
     </row>
     <row r="9">
